--- a/data/Otxarkoaga/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Otxarkoaga/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F469EDA-9704-46ED-A1F3-79D181A19A9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5E5B92-E61E-4B5F-B237-45B19BBC1D40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>WoS_time_min</t>
+  </si>
+  <si>
+    <t>conmu_time_sigma</t>
+  </si>
+  <si>
+    <t>conmu_time_mu</t>
+  </si>
+  <si>
+    <t>conmu_time_max</t>
+  </si>
+  <si>
+    <t>conmu_time_min</t>
   </si>
 </sst>
 </file>
@@ -493,39 +505,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.33203125" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="11.33203125" customWidth="1"/>
-    <col min="25" max="25" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="18.6640625" customWidth="1"/>
-    <col min="33" max="33" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="16" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="18" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="24" width="11.33203125" customWidth="1"/>
+    <col min="25" max="25" width="17.77734375" customWidth="1"/>
+    <col min="26" max="26" width="19.88671875" customWidth="1"/>
+    <col min="27" max="27" width="18.21875" customWidth="1"/>
+    <col min="28" max="32" width="18.6640625" customWidth="1"/>
+    <col min="33" max="33" width="20.88671875" customWidth="1"/>
+    <col min="34" max="34" width="23.109375" customWidth="1"/>
+    <col min="35" max="35" width="21.44140625" customWidth="1"/>
+    <col min="36" max="36" width="21.88671875" customWidth="1"/>
+    <col min="37" max="37" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,8 +645,20 @@
       <c r="AJ1" t="s">
         <v>24</v>
       </c>
+      <c r="AK1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -744,8 +767,20 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>32</v>
+      </c>
+      <c r="AL2">
+        <v>7</v>
+      </c>
+      <c r="AM2">
+        <v>20</v>
+      </c>
+      <c r="AN2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -854,8 +889,20 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>29</v>
+      </c>
+      <c r="AL3">
+        <v>7</v>
+      </c>
+      <c r="AM3">
+        <v>18</v>
+      </c>
+      <c r="AN3">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -964,8 +1011,20 @@
       <c r="AJ4">
         <v>2</v>
       </c>
+      <c r="AK4">
+        <v>15</v>
+      </c>
+      <c r="AL4">
+        <v>5</v>
+      </c>
+      <c r="AM4">
+        <v>10</v>
+      </c>
+      <c r="AN4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1074,8 +1133,20 @@
       <c r="AJ5">
         <v>2</v>
       </c>
+      <c r="AK5">
+        <v>30</v>
+      </c>
+      <c r="AL5">
+        <v>8</v>
+      </c>
+      <c r="AM5">
+        <v>15</v>
+      </c>
+      <c r="AN5">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1184,8 +1255,20 @@
       <c r="AJ6">
         <v>1</v>
       </c>
+      <c r="AK6">
+        <v>25</v>
+      </c>
+      <c r="AL6">
+        <v>10</v>
+      </c>
+      <c r="AM6">
+        <v>30</v>
+      </c>
+      <c r="AN6">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1202,7 +1285,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1219,7 +1302,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1236,7 +1319,7 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
